--- a/globe/numbeoCoLData/2016CoL.xlsx
+++ b/globe/numbeoCoLData/2016CoL.xlsx
@@ -1981,7 +1981,7 @@
     <t xml:space="preserve">Zaragoza (Saragossa), Spain</t>
   </si>
   <si>
-    <t xml:space="preserve">Zaragoza (Saragossa)</t>
+    <t xml:space="preserve">Zaragoza</t>
   </si>
   <si>
     <t xml:space="preserve">Panama City, Panama</t>
@@ -2806,7 +2806,7 @@
     <t xml:space="preserve">Krakow (Cracow), Poland</t>
   </si>
   <si>
-    <t xml:space="preserve">Krakow (Cracow)</t>
+    <t xml:space="preserve">Krakow</t>
   </si>
   <si>
     <t xml:space="preserve">Gaborone, Botswana</t>
@@ -3563,13 +3563,15 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A449" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E553" activeCellId="0" sqref="E553"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
